--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813668.4742533952</v>
+        <v>811149.8058389162</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>206.5094989690911</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>381.4859536980651</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.2722533838093</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>81.21182540108224</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>95.23534721536812</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>7.157261199727826</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>78.14211475318109</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>148.4399041872981</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>110.6136247060142</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329731</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323805</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114115</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>256.349515682835</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035337</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.5947200729422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009503</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034046</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.018581172449412</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>63.32315142138724</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819347</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552921</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>107.4021082756262</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>4.019807611475398</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.787132650396</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740331</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23.10998325717265</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613147</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>91.89996056624801</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833876</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>69.82863813027285</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599958</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161940623</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797029</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365885</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>652.5759934195833</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>652.5759934195833</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>652.5759934195833</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>266.787740821339</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>259.8422400721356</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4361,19 +4361,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1042.715325395395</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>652.5759934195833</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.4321187182926</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>903.4321187182926</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>753.3154793059568</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.873162692062</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.080583548532</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>987.1783726748449</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="C5" t="n">
-        <v>618.2158557344333</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>447.5189834864568</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4580,37 +4580,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005981</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270161</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.012626270161</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1747.243971000046</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1373.778212738967</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1373.778212738967</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,40 +4641,40 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605191</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919908</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
         <v>2004.520742047138</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.1500016945628</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>386.1500016945628</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>236.033362282227</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.349301773071</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>834.9321317361103</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>606.9425808380929</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.1500016945628</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.87852028569</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.87852028569</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>594.6215500005598</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>425.6853670726529</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>275.5687276603171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>275.5687276603171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>275.5687276603171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>275.5687276603171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.2700148307995</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2039.925018196099</v>
+        <v>1535.258832689349</v>
       </c>
       <c r="C11" t="n">
-        <v>1670.962501255688</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648937</v>
+        <v>898.1213569785846</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>512.3331043803403</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610856</v>
+        <v>101.3471995907327</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907327</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907327</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442031</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765422</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687097</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856277</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882235</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234585</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455654</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971434</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604043</v>
+        <v>3369.295305604047</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260472</v>
+        <v>3038.232418260476</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990358</v>
+        <v>2685.463762990362</v>
       </c>
       <c r="X11" t="n">
-        <v>2685.463762990358</v>
+        <v>2311.998004729282</v>
       </c>
       <c r="Y11" t="n">
-        <v>2426.524858260221</v>
+        <v>1921.85867275347</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792124</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376494</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649585</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908847</v>
+        <v>1413.763713908848</v>
       </c>
       <c r="N12" t="n">
-        <v>1895.007493119501</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2367.97904598525</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.97904598525</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>758.2870925864303</v>
+        <v>203.8650582458537</v>
       </c>
       <c r="C13" t="n">
-        <v>758.2870925864303</v>
+        <v>203.8650582458537</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740945</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917014</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="F13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
         <v>368.4550473457698</v>
@@ -5209,40 +5209,40 @@
         <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551102</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551102</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101148</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.004279541437</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.31979133555</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298589</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.902621298589</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.1100421550587</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,7 +5261,7 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5276,22 +5276,22 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021282</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.5667998938119</v>
+        <v>561.9183350635723</v>
       </c>
       <c r="C16" t="n">
-        <v>743.5667998938119</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="D16" t="n">
-        <v>593.4501604814761</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E16" t="n">
-        <v>445.5370668990829</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>298.6471194011725</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>298.6471194011725</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>156.774402439603</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861977</v>
       </c>
       <c r="L16" t="n">
         <v>819.184291169332</v>
@@ -5476,10 +5476,10 @@
         <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>964.359379037342</v>
+        <v>964.3593790373416</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938119</v>
+        <v>743.566799893812</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536382</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257313</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>261.8464821474269</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>261.8464821474269</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>114.9565346495165</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524072</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524072</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.40087886827</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662383</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625422</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727405</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583875</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876722</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597653</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597653</v>
+        <v>363.7369613277347</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453415</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453415</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038375</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258109</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602307</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614421</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317912</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327638</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048569</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925213</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101283</v>
+        <v>113.9333885650336</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122181</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,25 +6145,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630036</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.555887056182</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282751</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282751</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458821</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038323</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797724</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2423.619666148773</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9969310299518</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.2043518864217</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368213</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>481.4479471244856</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420926</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>186.6449060441824</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6716,16 +6716,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630038</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350969</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227611</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403679</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F34" t="n">
-        <v>331.5467402424576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>164.3506409573376</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111692</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188002</v>
+        <v>580.8993044876718</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908933</v>
+        <v>411.9631215597651</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908933</v>
+        <v>261.8464821474294</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908933</v>
+        <v>261.8464821474294</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908934</v>
+        <v>261.8464821474294</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230933</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>94.65038286230933</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166296</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290587</v>
+        <v>1211.329899359459</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925701</v>
+        <v>983.3403484614416</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490399</v>
+        <v>762.5477693179115</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130824</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111066</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803444</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.8884229732186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.23726010899512</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726202</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146351</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>160.2282399261784</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>18.48142532302178</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067396</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>73.62417772601837</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4141550350938</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187286</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459476</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856253</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.26526345294906</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459248</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>70.46607471595101</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194154</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823111</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>80.44045370237146</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.3683537222875</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>911432.9041099767</v>
+        <v>911432.9041099773</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>991821.935766761</v>
+        <v>991821.9357667607</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997293.8001304304</v>
+        <v>997293.8001304303</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.80013043</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>997293.8001304305</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304304</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713447</v>
+        <v>386954.4379713451</v>
       </c>
       <c r="F2" t="n">
         <v>421406.8801099662</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372533</v>
@@ -26341,10 +26341,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="M2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372533</v>
@@ -26353,7 +26353,7 @@
         <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185142</v>
+        <v>143114.139218515</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051397</v>
+        <v>166521.3471051389</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557898</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.3285511529</v>
+        <v>37377.3285511531</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848948</v>
+        <v>43782.40655848961</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9238.079399450547</v>
@@ -26433,28 +26433,28 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756604</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="M4" t="n">
-        <v>9337.200356756573</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756586</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214698</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913368.9005291184</v>
+        <v>-913368.9005291181</v>
       </c>
       <c r="C6" t="n">
-        <v>201382.8830468017</v>
+        <v>201382.8830468015</v>
       </c>
       <c r="D6" t="n">
-        <v>41961.61304890978</v>
+        <v>41961.61304890949</v>
       </c>
       <c r="E6" t="n">
-        <v>148508.497191233</v>
+        <v>148298.5329473878</v>
       </c>
       <c r="F6" t="n">
-        <v>145412.7367554569</v>
+        <v>145366.831759892</v>
       </c>
       <c r="G6" t="n">
-        <v>302124.9984210105</v>
+        <v>302090.2604955752</v>
       </c>
       <c r="H6" t="n">
-        <v>313292.2346565896</v>
+        <v>313257.4967311539</v>
       </c>
       <c r="I6" t="n">
-        <v>313292.2346565895</v>
+        <v>313257.4967311538</v>
       </c>
       <c r="J6" t="n">
-        <v>145687.0568466069</v>
+        <v>145652.3189211713</v>
       </c>
       <c r="K6" t="n">
-        <v>313292.2346565895</v>
+        <v>313257.4967311538</v>
       </c>
       <c r="L6" t="n">
-        <v>264998.2646483987</v>
+        <v>264963.5267229628</v>
       </c>
       <c r="M6" t="n">
-        <v>275914.9061054367</v>
+        <v>275880.1681800006</v>
       </c>
       <c r="N6" t="n">
-        <v>269509.8280981001</v>
+        <v>269475.0901726643</v>
       </c>
       <c r="O6" t="n">
-        <v>310268.9366793648</v>
+        <v>310234.1987539293</v>
       </c>
       <c r="P6" t="n">
-        <v>313292.2346565896</v>
+        <v>313257.4967311538</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,43 +26787,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086463</v>
+        <v>981.3883278086471</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012562</v>
+        <v>122.3935669012569</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218313</v>
+        <v>145.8707812218306</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063534</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173606</v>
+        <v>178.7569625173599</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063534</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173602</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063534</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173606</v>
+        <v>178.7569625173599</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>205.0382038038629</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.751984957988498</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>15.16170926275987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>170.9258179227458</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>259.4476944053148</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>374.773108872534</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.29184789338808</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>206.2431374333848</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>34.14139020830655</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.639429415770185e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9.694629073260998e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.215385309298231e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29272,10 +29272,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29451,13 +29451,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.818923700876785e-14</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30441,7 +30441,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2.476099325576797e-12</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485643</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508985</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726049</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216962</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857414</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898376</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294397</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615128</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895581</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356978</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596466</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783038</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202549</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256409</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845322</v>
+        <v>660.6327957845325</v>
       </c>
       <c r="N12" t="n">
-        <v>617.4465395688425</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431802</v>
+        <v>179.5642660017257</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205467</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071841</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.4296328569758</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236082</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691782</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
         <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509172</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263705</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.499378897309</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050056</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570598</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929607</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826892</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197783</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435946</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34232,7 +34232,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893646</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>380.8714430074312</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419612</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276243</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584687</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932467</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077529</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062433</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151086</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156564</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116371</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458959</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457667</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625139</v>
+        <v>518.4987618625141</v>
       </c>
       <c r="N12" t="n">
-        <v>486.1048274855092</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987357</v>
+        <v>36.96802155728123</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211626</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701818</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112333</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765376</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998335</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096383</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409633</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753338</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060463</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394601</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991502</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38102,22 +38102,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
